--- a/sampledata/sample_antibody_batches.xlsx
+++ b/sampledata/sample_antibody_batches.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>AR_Center_Specific_ID</t>
   </si>
@@ -60,6 +60,9 @@
     <t>HMSL80001</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Abcam</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>2015-05-23</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Beckman Coulter</t>
@@ -245,7 +251,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -300,32 +306,32 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -333,98 +339,98 @@
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2"/>
     </row>

--- a/sampledata/sample_antibody_batches.xlsx
+++ b/sampledata/sample_antibody_batches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,11 +14,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>name changed from: AR_Batch_ID</t>
   </si>
@@ -59,6 +64,9 @@
     <t>Most Recent Update</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>HMSL80001</t>
   </si>
   <si>
@@ -83,6 +91,9 @@
     <t>2015-09-15</t>
   </si>
   <si>
+    <t>abb test comment 1</t>
+  </si>
+  <si>
     <t>HMSL80002</t>
   </si>
   <si>
@@ -92,6 +103,9 @@
     <t>8587S</t>
   </si>
   <si>
+    <t>abb test comment 2</t>
+  </si>
+  <si>
     <t>HMSL80003</t>
   </si>
   <si>
@@ -104,6 +118,9 @@
     <t>4</t>
   </si>
   <si>
+    <t>abb test comment 3</t>
+  </si>
+  <si>
     <t>HMSL80004</t>
   </si>
   <si>
@@ -116,6 +133,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>abb test comment 4</t>
+  </si>
+  <si>
     <t>HMSL80005</t>
   </si>
   <si>
@@ -128,6 +148,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>abb test comment 5</t>
+  </si>
+  <si>
     <t>HMSL80006</t>
   </si>
   <si>
@@ -137,6 +160,9 @@
     <t>5018S</t>
   </si>
   <si>
+    <t>abb test comment 6</t>
+  </si>
+  <si>
     <t>HMSL80007</t>
   </si>
   <si>
@@ -153,6 +179,9 @@
   </si>
   <si>
     <t>cross absorbed against human IgG, human serum, mouse IgG, mouse serum and bovine serum</t>
+  </si>
+  <si>
+    <t>abb test comment 7</t>
   </si>
 </sst>
 </file>
@@ -280,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +348,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -358,30 +391,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.5765306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.1428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="2" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +434,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" s="10" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="11" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -435,250 +468,274 @@
       <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="L2" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="n">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="I4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="I5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="C6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="I6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="I7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="I8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="C9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>20</v>
+      <c r="I9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
